--- a/export_ors.xlsx
+++ b/export_ors.xlsx
@@ -43,7 +43,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>Silicon Valley Computer Group Phil. Inc</t>
+    <t>Simot Sarap Eatery</t>
   </si>
   <si>
     <t>Office</t>
@@ -52,7 +52,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>2nd Floor Cyberzone Area, SM Calamba City Laguna</t>
+    <t>Brgy. Putho-Tuntungin, Los Banos Laguna</t>
   </si>
   <si>
     <t>Responsibility Center</t>
@@ -79,7 +79,7 @@
     <t>To obligate the payment for the procurement of</t>
   </si>
   <si>
-    <t>to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel</t>
+    <t xml:space="preserve"> 2020 1st Quarter Meeting for Comprehensive Development Plan Focal Persons     </t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                 Total</t>
@@ -150,7 +150,7 @@
     <t>Printed Name:</t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
+    <t>JAY-AR T. BELTRAN</t>
   </si>
   <si>
     <t>JORIELYN S. CUBIO</t>
@@ -162,7 +162,7 @@
     <t>____________________________________</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>OIC - LGCDD Chief</t>
   </si>
   <si>
     <t>OIC- Budget Section</t>
@@ -2148,7 +2148,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="16"/>
       <c r="L16" s="186">
-        <v>102465</v>
+        <v>7500</v>
       </c>
       <c r="M16" s="187"/>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="82">
         <f>SUM(L15:M19)</f>
-        <v>102465</v>
+        <v>7500</v>
       </c>
       <c r="M21" s="83"/>
     </row>
@@ -2641,7 +2641,7 @@
       <c r="A43" s="31"/>
       <c r="B43" s="163" t="str">
         <f>D16</f>
-        <v>to be used in support to operation in monitoring Locally-Funded Projects of Regional and Provincial PDMU Personnel</v>
+        <v> 2020 1st Quarter Meeting for Comprehensive Development Plan Focal Persons     </v>
       </c>
       <c r="C43" s="164"/>
       <c r="D43" s="165"/>
@@ -2650,11 +2650,11 @@
       <c r="G43" s="18"/>
       <c r="H43" s="46">
         <f>SUM(L14:M20)</f>
-        <v>102465</v>
+        <v>7500</v>
       </c>
       <c r="I43" s="58">
         <f>SUM(L14:M20)</f>
-        <v>102465</v>
+        <v>7500</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="16"/>

--- a/export_ors.xlsx
+++ b/export_ors.xlsx
@@ -43,7 +43,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>Wattsavers Energy Services Company</t>
+    <t>Melcheshoe Trading</t>
   </si>
   <si>
     <t>Office</t>
@@ -52,7 +52,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>B15 L4 Baht St. Lores Country Homes Antipolo City</t>
+    <t>Unit 8 EVC Townhomes, 454 San Agustin 2, DasmariÃ±as, C</t>
   </si>
   <si>
     <t>Responsibility Center</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> Maintenance of 27 Aircondition units in the Regional Office for FY 2020                , in the amount of..........</t>
+    <t>Equipment for the installation of Public Address System in the Regional Office      , in the amount of..........</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                 Total</t>
@@ -144,7 +144,7 @@
     <t>Position        :</t>
   </si>
   <si>
-    <t>FAD Chief</t>
+    <t>Chief, FAD</t>
   </si>
   <si>
     <t>OIC-Budget Section</t>
@@ -17980,7 +17980,7 @@
       <c r="J16" s="69"/>
       <c r="K16" s="76"/>
       <c r="L16" s="77">
-        <v>177300</v>
+        <v>97095.75</v>
       </c>
       <c r="M16" s="78"/>
     </row>

--- a/export_ors.xlsx
+++ b/export_ors.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Appendix 11</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Payee</t>
   </si>
   <si>
-    <t>Melcheshoe Trading</t>
+    <t>168 Paragon International General Contractror   Equipme</t>
   </si>
   <si>
     <t>Office</t>
@@ -52,7 +52,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Unit 8 EVC Townhomes, 454 San Agustin 2, Dasmariñas, C</t>
+    <t>108-A Kaingin Road, Balintawak, Quezon City</t>
   </si>
   <si>
     <t>Responsibility Center</t>
@@ -73,7 +73,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">To Obligate the payment for the provision of Supplies to be used in the office of Regional Director </t>
+    <t>To Obligate the payment for the provision of IMPLEMENTATION OF SOLID WASTE MANAGEMENT IN DILG REGIONAL OFFICE</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                 Total</t>
@@ -132,9 +132,6 @@
     <t xml:space="preserve">Printed Name:  </t>
   </si>
   <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
     <t>Printed Name:</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
   </si>
   <si>
     <t>Position        :</t>
-  </si>
-  <si>
-    <t>Chief, FAD</t>
   </si>
   <si>
     <t>OIC-Budget Section</t>
@@ -17984,7 +17978,7 @@
       <c r="J16" s="118"/>
       <c r="K16" s="4"/>
       <c r="L16" s="202">
-        <v>19403.4</v>
+        <v>880</v>
       </c>
       <c r="M16" s="203"/>
     </row>
@@ -18414,20 +18408,18 @@
         <v>32</v>
       </c>
       <c r="B43" s="11"/>
-      <c r="C43" s="79" t="s">
-        <v>33</v>
-      </c>
+      <c r="C43" s="79"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="13"/>
       <c r="I43" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L43" s="11"/>
       <c r="M43" s="13"/>
@@ -18449,23 +18441,21 @@
     </row>
     <row r="45" spans="1:16142" customHeight="1" ht="12.75">
       <c r="A45" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="105"/>
-      <c r="C45" s="115" t="s">
-        <v>37</v>
-      </c>
+      <c r="C45" s="115"/>
       <c r="D45" s="86"/>
       <c r="E45" s="86"/>
       <c r="F45" s="86"/>
       <c r="G45" s="86"/>
       <c r="H45" s="87"/>
       <c r="I45" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="13"/>
@@ -18487,7 +18477,7 @@
     </row>
     <row r="47" spans="1:16142" customHeight="1" ht="12.75">
       <c r="A47" s="104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="105"/>
       <c r="C47" s="86" t="s">
@@ -18499,11 +18489,11 @@
       <c r="G47" s="86"/>
       <c r="H47" s="87"/>
       <c r="I47" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L47" s="11"/>
       <c r="M47" s="13"/>
@@ -18540,10 +18530,10 @@
     </row>
     <row r="50" spans="1:16142" customHeight="1" ht="15">
       <c r="A50" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="107"/>
       <c r="D50" s="107"/>
@@ -18559,7 +18549,7 @@
     </row>
     <row r="51" spans="1:16142" customHeight="1" ht="15">
       <c r="A51" s="109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="107"/>
       <c r="C51" s="107"/>
@@ -18578,7 +18568,7 @@
     </row>
     <row r="52" spans="1:16142" customHeight="1" ht="15">
       <c r="A52" s="88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="90" t="s">
         <v>13</v>
@@ -18586,22 +18576,22 @@
       <c r="C52" s="91"/>
       <c r="D52" s="91"/>
       <c r="E52" s="94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="95"/>
       <c r="G52" s="96"/>
       <c r="H52" s="88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I52" s="100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J52" s="101"/>
       <c r="K52" s="80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L52" s="81" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M52" s="82"/>
     </row>
@@ -18618,10 +18608,10 @@
       <c r="J53" s="101"/>
       <c r="K53" s="80"/>
       <c r="L53" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M53" s="40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:16142" customHeight="1" ht="15.75">
@@ -18633,14 +18623,14 @@
       <c r="F54" s="98"/>
       <c r="G54" s="99"/>
       <c r="H54" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J54" s="84"/>
       <c r="K54" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L54" s="43"/>
       <c r="M54" s="44"/>
